--- a/계획서/20180321 계획 일정표.xlsx
+++ b/계획서/20180321 계획 일정표.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10319"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adun/Desktop/Report/계획서/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DAAE83-1C0F-DE4C-AE39-66ED15002640}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="25760" windowHeight="11600" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주차별 계획서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>주제</t>
   </si>
@@ -150,37 +155,13 @@
 2. 각 보스별 특정 탄막 패턴 적용</t>
   </si>
   <si>
-    <t>부족한 부분 채워넣기, 총 3개 모델링하기</t>
-  </si>
-  <si>
     <t>총 모델링</t>
   </si>
   <si>
-    <t>총 매핑</t>
-  </si>
-  <si>
-    <t>총에 알맞게 색을 넣는다.</t>
-  </si>
-  <si>
-    <t>몬스터 2개 모델링</t>
-  </si>
-  <si>
-    <t>내 상상력을 동원해서 2개 몬스터 모델링</t>
-  </si>
-  <si>
-    <t>몬스터 1개 모델링, 매핑</t>
-  </si>
-  <si>
-    <t>매핑</t>
-  </si>
-  <si>
     <t>배경 모델링</t>
   </si>
   <si>
     <t>UI</t>
-  </si>
-  <si>
-    <t>계획하기</t>
   </si>
   <si>
     <t>맵툴 제작, 기초 조명 셰이더</t>
@@ -224,6 +205,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>탄막 구현</t>
     </r>
@@ -237,6 +220,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>다양한 조명 구현</t>
     </r>
@@ -321,13 +306,6 @@
 2. 총 기획안 제작</t>
   </si>
   <si>
-    <t>만들기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 기획안에 맞는 총 모델링
-2. 모델링 </t>
-  </si>
-  <si>
     <t>총 텍스쳐 제작</t>
   </si>
   <si>
@@ -351,208 +329,130 @@
     <t>1. 보스 몬스터 디퓨즈 맵 , 노멀 맵 제작</t>
   </si>
   <si>
-    <t>대기방 UI 모델링</t>
-  </si>
-  <si>
-    <t>1. 대기방 UI 모델링</t>
-  </si>
-  <si>
-    <t>1. 인게임 UI 제작</t>
-  </si>
-  <si>
-    <t>1. 대기방 UI 제작</t>
-  </si>
-  <si>
-    <t>1. 나무 , 돌 등 배경 모델 제작
+    <t>1. 나무 , 돌 등 배경 오브젝트 모델 제작
 2. 맵툴을 사용하여 배치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 대기방 UI 제작 (로딩바, 캐릭터 선택 메뉴 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인게임 UI 제작 (룬, 체력바 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C5700"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1" tint="0.150000"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -566,161 +466,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -735,9 +488,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -752,9 +503,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -769,9 +518,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -786,9 +533,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -803,9 +548,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -820,9 +563,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -837,9 +578,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -854,9 +593,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -871,9 +608,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -886,9 +621,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -901,9 +634,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -916,9 +647,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -933,9 +662,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -950,9 +677,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -967,9 +692,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -980,9 +703,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -993,9 +714,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1004,9 +723,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1015,9 +732,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1028,9 +743,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1041,294 +754,49 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1358,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1367,22 +835,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1403,71 +880,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="11" builtinId="11"/>
-    <cellStyle name="계산" xfId="19" builtinId="22"/>
+  <cellStyles count="5">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
-    <cellStyle name="메모" xfId="10" builtinId="10"/>
-    <cellStyle name="백분율" xfId="7" builtinId="5"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="20" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="5" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="8" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="21" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="22" builtinId="25"/>
-    <cellStyle name="입력" xfId="17" builtinId="20"/>
-    <cellStyle name="제목" xfId="12" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
-    <cellStyle name="좋음" xfId="23" builtinId="26"/>
-    <cellStyle name="출력" xfId="18" builtinId="21"/>
-    <cellStyle name="통화" xfId="6" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="9" builtinId="7"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1767,21 +1203,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.14062500" defaultRowHeight="17.250000"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" style="15" width="11.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="15" width="32.33833334" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="90.67166731" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="11.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="33.750000" customHeight="1">
+    <row r="2" spans="2:4" ht="33.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1792,19 +1228,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="21.000000" customHeight="1">
+    <row r="3" spans="2:4" ht="21" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" ht="26.250000">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:4" ht="27">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4" ht="60.750000" customHeight="1">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:4" ht="60.75" customHeight="1">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1815,36 +1251,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="49.500000" customHeight="1">
+    <row r="6" spans="2:4" ht="49.5" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="35.300000">
+        <v>45</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="36">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="26.250000">
-      <c r="B9" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="27">
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4" ht="51.750000" customHeight="1">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="2:4" ht="51.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1855,76 +1291,76 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="16" customFormat="1" ht="79.500000" customHeight="1">
+    <row r="11" spans="2:4" s="16" customFormat="1" ht="79.5" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="35.300000">
+        <v>46</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="36">
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="26.250000">
-      <c r="B14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="27">
+      <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="2:4" ht="35.300000">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="2:4" ht="36">
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="35.300000">
+      <c r="D15" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="36">
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="35.300000">
+        <v>48</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="36">
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="26.250000">
-      <c r="B19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="27">
+      <c r="B19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="2:4" ht="20.250000">
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="2:4" ht="20">
       <c r="B20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1935,76 +1371,76 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="35.300000">
+    <row r="21" spans="2:4" ht="36">
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="35.300000">
+        <v>49</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="36">
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="26.250000">
-      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="27">
+      <c r="B24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="2:4" ht="35.300000">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="2:4" ht="36">
       <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="35.300000">
+      <c r="D25" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="36">
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="52.550000">
+        <v>53</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="54">
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="26.250000">
-      <c r="B29" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="27">
+      <c r="B29" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="2:4" ht="52.550000">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="2:4" ht="54">
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
@@ -2015,36 +1451,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="35.300000">
+    <row r="31" spans="2:4" ht="36">
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="35.300000">
+        <v>57</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="36">
       <c r="B32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="26.250000">
-      <c r="B34" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="27">
+      <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="2:4" ht="20.250000">
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="2:4" ht="20">
       <c r="B35" s="7" t="s">
         <v>3</v>
       </c>
@@ -2055,36 +1491,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="35.300000">
+    <row r="36" spans="2:4" ht="36">
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="20.250000">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="20">
       <c r="B37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="26.250000">
-      <c r="B39" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="27">
+      <c r="B39" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="2:4" ht="35.300000">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="2:4" ht="36">
       <c r="B40" s="7" t="s">
         <v>3</v>
       </c>
@@ -2095,36 +1531,36 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="35.300000">
+    <row r="41" spans="2:4" ht="36">
       <c r="B41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="35.300000">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="36">
       <c r="B42" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="26.250000">
-      <c r="B44" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="27">
+      <c r="B44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="2:4" ht="20.250000">
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="2:4" ht="20">
       <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
@@ -2135,36 +1571,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="35.300000">
+    <row r="46" spans="2:4" ht="36">
       <c r="B46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="20.250000">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="20">
       <c r="B47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="26.250000">
-      <c r="B49" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="27">
+      <c r="B49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-    </row>
-    <row r="50" spans="2:4" ht="20.250000">
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="2:4" ht="20">
       <c r="B50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2175,36 +1611,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="35.300000">
+    <row r="51" spans="2:4" ht="36">
       <c r="B51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="35.300000">
+        <v>63</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="36">
       <c r="B52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="26.250000">
-      <c r="B54" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="27">
+      <c r="B54" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="2:4" ht="20.250000">
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="2:4" ht="20">
       <c r="B55" s="7" t="s">
         <v>3</v>
       </c>
@@ -2215,36 +1651,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="35.300000">
+    <row r="56" spans="2:4" ht="36">
       <c r="B56" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="20.250000">
+        <v>56</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="20">
       <c r="B57" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="26.250000">
-      <c r="B59" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="27">
+      <c r="B59" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="2:4" ht="35.300000">
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="2:4" ht="36">
       <c r="B60" s="5" t="s">
         <v>3</v>
       </c>
@@ -2255,77 +1691,77 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="35.300000">
+    <row r="61" spans="2:4" ht="36">
       <c r="B61" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="20.250000">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="20">
       <c r="B62" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="26.250000">
-      <c r="B64" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="27">
+      <c r="B64" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" spans="2:4" ht="20.250000">
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="2:4" ht="20">
       <c r="B65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="27"/>
-    </row>
-    <row r="66" spans="2:4" ht="20.250000">
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="2:4" ht="20">
       <c r="B66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-    </row>
-    <row r="67" spans="2:4" ht="20.250000">
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
+    </row>
+    <row r="67" spans="2:4" ht="20">
       <c r="B67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C65:D67"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C65:D67"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>